--- a/Code/Results/Cases/Case_0_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_230/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2713714909333049</v>
+        <v>0.4008259790159912</v>
       </c>
       <c r="D2">
-        <v>0.02887718125402827</v>
+        <v>0.08476179735234268</v>
       </c>
       <c r="E2">
-        <v>0.081848867761245</v>
+        <v>0.1646544839845525</v>
       </c>
       <c r="F2">
-        <v>2.814467487884372</v>
+        <v>3.188501816221475</v>
       </c>
       <c r="G2">
-        <v>0.0007727669962650507</v>
+        <v>0.002534671248448313</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1738662185316215</v>
+        <v>0.2847810779158451</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0529650545247371</v>
+        <v>0.1424449109324222</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
-        <v>8.608499243524307</v>
+        <v>9.126135068039105</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2471718398669367</v>
+        <v>0.3977702695211889</v>
       </c>
       <c r="D3">
-        <v>0.02855929509588861</v>
+        <v>0.08500181780032889</v>
       </c>
       <c r="E3">
-        <v>0.07671166245599892</v>
+        <v>0.1644652704299574</v>
       </c>
       <c r="F3">
-        <v>2.516196928765538</v>
+        <v>3.139123629587615</v>
       </c>
       <c r="G3">
-        <v>0.0007818349075657316</v>
+        <v>0.00254060604003649</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1596117921650446</v>
+        <v>0.2833444913860816</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0514935904213587</v>
+        <v>0.1428503099764242</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
-        <v>7.665977775295573</v>
+        <v>8.963443070047845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2328117639786882</v>
+        <v>0.3960940797316255</v>
       </c>
       <c r="D4">
-        <v>0.02838885206014297</v>
+        <v>0.08516658884908956</v>
       </c>
       <c r="E4">
-        <v>0.0736952898843839</v>
+        <v>0.1644172740985681</v>
       </c>
       <c r="F4">
-        <v>2.338515573613947</v>
+        <v>3.110605269914089</v>
       </c>
       <c r="G4">
-        <v>0.0007875516628284556</v>
+        <v>0.002544444145877141</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.151189508237195</v>
+        <v>0.2825991955901372</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05066159155429162</v>
+        <v>0.143144373227603</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
-        <v>7.104134221228321</v>
+        <v>8.868843805375093</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2270733996809895</v>
+        <v>0.3954612393418557</v>
       </c>
       <c r="D5">
-        <v>0.02832532184880243</v>
+        <v>0.08523811795603109</v>
       </c>
       <c r="E5">
-        <v>0.07249800976453002</v>
+        <v>0.164414856852666</v>
       </c>
       <c r="F5">
-        <v>2.267334744229288</v>
+        <v>3.099435058787435</v>
       </c>
       <c r="G5">
-        <v>0.0007899207337084342</v>
+        <v>0.002546057191811728</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1478326335932962</v>
+        <v>0.2823298260261424</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05033949573996921</v>
+        <v>0.1432755714428282</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>6.878955430401277</v>
+        <v>8.831620452771119</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2261270749448272</v>
+        <v>0.3953591876491345</v>
       </c>
       <c r="D6">
-        <v>0.02831512261619196</v>
+        <v>0.08525026032782179</v>
       </c>
       <c r="E6">
-        <v>0.07230105397469444</v>
+        <v>0.1644154907085138</v>
       </c>
       <c r="F6">
-        <v>2.255585217367639</v>
+        <v>3.097607468376367</v>
       </c>
       <c r="G6">
-        <v>0.0007903165532285983</v>
+        <v>0.002546328000479764</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1472795615064229</v>
+        <v>0.282287170362288</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05028700750074222</v>
+        <v>0.1432980436041973</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>6.841779998835193</v>
+        <v>8.825519532964677</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.232733929855371</v>
+        <v>0.3960853417838592</v>
       </c>
       <c r="D7">
-        <v>0.02838797163999374</v>
+        <v>0.08516753575444369</v>
       </c>
       <c r="E7">
-        <v>0.07367901718502523</v>
+        <v>0.1644171720963641</v>
       </c>
       <c r="F7">
-        <v>2.337550825194043</v>
+        <v>3.110452799291096</v>
       </c>
       <c r="G7">
-        <v>0.0007875834507289409</v>
+        <v>0.002544465701405622</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1511439411411217</v>
+        <v>0.2825954237807693</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05065718031365662</v>
+        <v>0.1431460965786577</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>7.101082671759571</v>
+        <v>8.868336433054878</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2629164554812462</v>
+        <v>0.3997308048376453</v>
       </c>
       <c r="D8">
-        <v>0.02876225218570383</v>
+        <v>0.08484095077592357</v>
       </c>
       <c r="E8">
-        <v>0.08004719871000177</v>
+        <v>0.1645750895357239</v>
       </c>
       <c r="F8">
-        <v>2.710398308759352</v>
+        <v>3.171101753324677</v>
       </c>
       <c r="G8">
-        <v>0.0007758639257145843</v>
+        <v>0.002536677379907218</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1688779331488703</v>
+        <v>0.2842573246249032</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.05244220937060362</v>
+        <v>0.142575329664016</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>8.279723117897618</v>
+        <v>9.068937128403149</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3266617769698144</v>
+        <v>0.4084711701628123</v>
       </c>
       <c r="D9">
-        <v>0.02970763902061435</v>
+        <v>0.08433819011484012</v>
       </c>
       <c r="E9">
-        <v>0.09376869744531646</v>
+        <v>0.165426127758483</v>
       </c>
       <c r="F9">
-        <v>3.492288507305631</v>
+        <v>3.304390414962597</v>
       </c>
       <c r="G9">
-        <v>0.0007539652040786379</v>
+        <v>0.002522936840162652</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2066630553508801</v>
+        <v>0.2886043149122202</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.05656170110028569</v>
+        <v>0.1418137995036162</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>10.74842760769241</v>
+        <v>9.504568119725718</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3772266789401328</v>
+        <v>0.4158706283179754</v>
       </c>
       <c r="D10">
-        <v>0.03055551130690759</v>
+        <v>0.08405226851675707</v>
       </c>
       <c r="E10">
-        <v>0.1048227719573944</v>
+        <v>0.1663822655072309</v>
       </c>
       <c r="F10">
-        <v>4.109484584564882</v>
+        <v>3.411187870280742</v>
       </c>
       <c r="G10">
-        <v>0.0007383802558920317</v>
+        <v>0.002513764743261909</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2368790234632314</v>
+        <v>0.2924660023288226</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.06004786560262687</v>
+        <v>0.1414718669563584</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>12.69558928031023</v>
+        <v>9.850776479272156</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4012907389073632</v>
+        <v>0.4194509569323941</v>
       </c>
       <c r="D11">
-        <v>0.03098109648099623</v>
+        <v>0.08394022163370352</v>
       </c>
       <c r="E11">
-        <v>0.1101208936392659</v>
+        <v>0.1668893041853643</v>
       </c>
       <c r="F11">
-        <v>4.402663295813568</v>
+        <v>3.461725954367182</v>
       </c>
       <c r="G11">
-        <v>0.0007313588547268502</v>
+        <v>0.002509790191109113</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2513223433823129</v>
+        <v>0.2943689193268</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06175521625023705</v>
+        <v>0.1413634587048875</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>13.62027167823499</v>
+        <v>10.01404308703718</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.410580445326076</v>
+        <v>0.4208376719516025</v>
       </c>
       <c r="D12">
-        <v>0.03114864935269068</v>
+        <v>0.08390037589296284</v>
       </c>
       <c r="E12">
-        <v>0.1121716150852414</v>
+        <v>0.167091686474599</v>
       </c>
       <c r="F12">
-        <v>4.51577470722907</v>
+        <v>3.481146546516129</v>
       </c>
       <c r="G12">
-        <v>0.0007287058619801299</v>
+        <v>0.002508313404761875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2569081989428668</v>
+        <v>0.2951106083343973</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06242133375430114</v>
+        <v>0.141329177173855</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>13.97699594115124</v>
+        <v>10.07670476525391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4085714315449138</v>
+        <v>0.4205376410058932</v>
       </c>
       <c r="D13">
-        <v>0.03111226784234589</v>
+        <v>0.08390884257879705</v>
       </c>
       <c r="E13">
-        <v>0.1117278795802044</v>
+        <v>0.1670476380775909</v>
       </c>
       <c r="F13">
-        <v>4.491315761270357</v>
+        <v>3.476951363661442</v>
       </c>
       <c r="G13">
-        <v>0.0007292770402256569</v>
+        <v>0.002508630201815418</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2556997206972227</v>
+        <v>0.2949499329622398</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06227696550602602</v>
+        <v>0.1413362593277512</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>13.89985981057555</v>
+        <v>10.06317217017818</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4020513045100813</v>
+        <v>0.4195644224442958</v>
       </c>
       <c r="D14">
-        <v>0.03099474886785814</v>
+        <v>0.08393689175557384</v>
       </c>
       <c r="E14">
-        <v>0.1102886815769217</v>
+        <v>0.1669057462419268</v>
       </c>
       <c r="F14">
-        <v>4.411925211696342</v>
+        <v>3.463318018023926</v>
       </c>
       <c r="G14">
-        <v>0.0007311404987753178</v>
+        <v>0.002509668129083709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2517794593122886</v>
+        <v>0.29442951533062</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.0618096124753329</v>
+        <v>0.1413605027005822</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>13.64948187768755</v>
+        <v>10.01918150971164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3980814002954673</v>
+        <v>0.4189723282736111</v>
       </c>
       <c r="D15">
-        <v>0.0309236190629214</v>
+        <v>0.08395440898297934</v>
       </c>
       <c r="E15">
-        <v>0.1094131012536437</v>
+        <v>0.1668201852489979</v>
       </c>
       <c r="F15">
-        <v>4.363578400245018</v>
+        <v>3.455004096420254</v>
       </c>
       <c r="G15">
-        <v>0.0007322825563198417</v>
+        <v>0.002510307568727561</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2493938765039019</v>
+        <v>0.2941134938963756</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06152596333981819</v>
+        <v>0.1413762339279678</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>13.49700480165609</v>
+        <v>9.992345025575219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3756774139187371</v>
+        <v>0.4156409665114609</v>
       </c>
       <c r="D16">
-        <v>0.03052855466863136</v>
+        <v>0.08405995302973324</v>
       </c>
       <c r="E16">
-        <v>0.1044824178573514</v>
+        <v>0.1663505808914856</v>
       </c>
       <c r="F16">
-        <v>4.090599568096593</v>
+        <v>3.407924582323488</v>
       </c>
       <c r="G16">
-        <v>0.0007388401694805912</v>
+        <v>0.002514028457332159</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2359504858416699</v>
+        <v>0.2923445903929291</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.05993890425079584</v>
+        <v>0.141479899532186</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>12.63602183259417</v>
+        <v>9.840223313780314</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3622215678352632</v>
+        <v>0.4136522424130078</v>
       </c>
       <c r="D17">
-        <v>0.03029684566380908</v>
+        <v>0.08412931105620203</v>
       </c>
       <c r="E17">
-        <v>0.1015304280305429</v>
+        <v>0.1660809650594643</v>
       </c>
       <c r="F17">
-        <v>3.926518824306811</v>
+        <v>3.37954486772054</v>
       </c>
       <c r="G17">
-        <v>0.0007428778994756114</v>
+        <v>0.002516361666746031</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2278928830709077</v>
+        <v>0.2912969238347642</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05899781640422574</v>
+        <v>0.1415555624033189</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>12.11844881634863</v>
+        <v>9.748384667770381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3545804050947083</v>
+        <v>0.4125285430194197</v>
       </c>
       <c r="D18">
-        <v>0.03016728165440341</v>
+        <v>0.08417090054102516</v>
       </c>
       <c r="E18">
-        <v>0.09985750969421758</v>
+        <v>0.1659326735586824</v>
       </c>
       <c r="F18">
-        <v>3.833291493822543</v>
+        <v>3.36340555053269</v>
       </c>
       <c r="G18">
-        <v>0.0007452069888784774</v>
+        <v>0.002517722302412588</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.223322958269911</v>
+        <v>0.2907080919579386</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05846781829108139</v>
+        <v>0.1416035190528255</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>11.82435065507087</v>
+        <v>9.696104696330508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3520094306058184</v>
+        <v>0.4121515372976887</v>
       </c>
       <c r="D19">
-        <v>0.03012403218605186</v>
+        <v>0.08418527364110773</v>
       </c>
       <c r="E19">
-        <v>0.09929522041193195</v>
+        <v>0.1658836294876131</v>
       </c>
       <c r="F19">
-        <v>3.801914827803273</v>
+        <v>3.357972595402202</v>
       </c>
       <c r="G19">
-        <v>0.000745996839752749</v>
+        <v>0.002518186195808346</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2217863020245616</v>
+        <v>0.2905110844965932</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0582902497890494</v>
+        <v>0.1416205187273789</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>11.72536443321326</v>
+        <v>9.678496715856852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.363643627677618</v>
+        <v>0.4138618580061575</v>
       </c>
       <c r="D20">
-        <v>0.03032112320446956</v>
+        <v>0.08412175223927321</v>
       </c>
       <c r="E20">
-        <v>0.1018420477435562</v>
+        <v>0.1661089638839606</v>
       </c>
       <c r="F20">
-        <v>3.943864659076013</v>
+        <v>3.382546886850889</v>
       </c>
       <c r="G20">
-        <v>0.000742447410190028</v>
+        <v>0.002516111365016063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2287438341880232</v>
+        <v>0.2914070253062278</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.05909681394062716</v>
+        <v>0.1415470487714856</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
-        <v>12.17316658289383</v>
+        <v>9.758104789121717</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4039614020723263</v>
+        <v>0.4198494402158133</v>
       </c>
       <c r="D21">
-        <v>0.03102908774069846</v>
+        <v>0.08392858296130612</v>
       </c>
       <c r="E21">
-        <v>0.1107101534156207</v>
+        <v>0.1669471415662542</v>
       </c>
       <c r="F21">
-        <v>4.43518471774388</v>
+        <v>3.467314769812788</v>
       </c>
       <c r="G21">
-        <v>0.0007305930313061969</v>
+        <v>0.002509362497973885</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2529276328564549</v>
+        <v>0.2945818015051032</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.06194633555452711</v>
+        <v>0.1413531981529239</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
-        <v>13.72283721948918</v>
+        <v>10.03207989338989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4313582429320775</v>
+        <v>0.4239429633021246</v>
       </c>
       <c r="D22">
-        <v>0.03152943674391295</v>
+        <v>0.08381739382265607</v>
       </c>
       <c r="E22">
-        <v>0.1167682725366177</v>
+        <v>0.16755543470126</v>
       </c>
       <c r="F22">
-        <v>4.768656626833518</v>
+        <v>3.524365370009235</v>
       </c>
       <c r="G22">
-        <v>0.0007228773756437771</v>
+        <v>0.002505116546253269</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2694214802960033</v>
+        <v>0.2967796970005168</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.06392401616385257</v>
+        <v>0.1412659647146306</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
-        <v>14.77448040811441</v>
+        <v>10.21601499353619</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4166311571964627</v>
+        <v>0.4217416392032192</v>
       </c>
       <c r="D23">
-        <v>0.03125869828623706</v>
+        <v>0.0838753621102768</v>
       </c>
       <c r="E23">
-        <v>0.1135088335131478</v>
+        <v>0.1672252377327119</v>
       </c>
       <c r="F23">
-        <v>4.589430998683042</v>
+        <v>3.493764842240324</v>
       </c>
       <c r="G23">
-        <v>0.0007269939189983057</v>
+        <v>0.00250736766349258</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2605494162736335</v>
+        <v>0.2955953609488091</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.06285715196123931</v>
+        <v>0.1413089149031848</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>14.20928236945633</v>
+        <v>10.11739722765583</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3630004209964</v>
+        <v>0.4137670296169915</v>
       </c>
       <c r="D24">
-        <v>0.03031013601142263</v>
+        <v>0.08412516423872063</v>
       </c>
       <c r="E24">
-        <v>0.1017010894487527</v>
+        <v>0.1660962847028742</v>
       </c>
       <c r="F24">
-        <v>3.936019188240834</v>
+        <v>3.381189124191167</v>
       </c>
       <c r="G24">
-        <v>0.0007426420100352226</v>
+        <v>0.00251622446654582</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2283589257040859</v>
+        <v>0.2913572064315986</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.05905202290450973</v>
+        <v>0.1415508839010826</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>12.14841797043448</v>
+        <v>9.753708705221015</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3088379029637736</v>
+        <v>0.405935500248404</v>
       </c>
       <c r="D25">
-        <v>0.02942694051097661</v>
+        <v>0.0844595108407411</v>
       </c>
       <c r="E25">
-        <v>0.08990347583527836</v>
+        <v>0.1651378580109757</v>
       </c>
       <c r="F25">
-        <v>3.274206653164981</v>
+        <v>3.266783272651026</v>
       </c>
       <c r="G25">
-        <v>0.0007597884217476767</v>
+        <v>0.002526491120653027</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1960597757007392</v>
+        <v>0.2873113850367659</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.055373133285471</v>
+        <v>0.1419815707235621</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>10.0601515374189</v>
+        <v>9.382154833515585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_230/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4008259790159912</v>
+        <v>0.2713714909335607</v>
       </c>
       <c r="D2">
-        <v>0.08476179735234268</v>
+        <v>0.0288771812538986</v>
       </c>
       <c r="E2">
-        <v>0.1646544839845525</v>
+        <v>0.08184886776124856</v>
       </c>
       <c r="F2">
-        <v>3.188501816221475</v>
+        <v>2.814467487884315</v>
       </c>
       <c r="G2">
-        <v>0.002534671248448313</v>
+        <v>0.0007727669961486574</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2847810779158451</v>
+        <v>0.17386621853165</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1424449109324222</v>
+        <v>0.05296505452488987</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>9.126135068039105</v>
+        <v>8.60849924352425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3977702695211889</v>
+        <v>0.2471718398667377</v>
       </c>
       <c r="D3">
-        <v>0.08500181780032889</v>
+        <v>0.02855929509578026</v>
       </c>
       <c r="E3">
-        <v>0.1644652704299574</v>
+        <v>0.07671166245600247</v>
       </c>
       <c r="F3">
-        <v>3.139123629587615</v>
+        <v>2.516196928765538</v>
       </c>
       <c r="G3">
-        <v>0.00254060604003649</v>
+        <v>0.0007818349075101094</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2833444913860816</v>
+        <v>0.1596117921650162</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1428503099764242</v>
+        <v>0.05149359042132673</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>8.963443070047845</v>
+        <v>7.66597777529546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3960940797316255</v>
+        <v>0.2328117639788871</v>
       </c>
       <c r="D4">
-        <v>0.08516658884908956</v>
+        <v>0.02838885206014652</v>
       </c>
       <c r="E4">
-        <v>0.1644172740985681</v>
+        <v>0.07369528988438034</v>
       </c>
       <c r="F4">
-        <v>3.110605269914089</v>
+        <v>2.338515573613961</v>
       </c>
       <c r="G4">
-        <v>0.002544444145877141</v>
+        <v>0.0007875516628284922</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2825991955901372</v>
+        <v>0.1511895082371311</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.143144373227603</v>
+        <v>0.05066159155423122</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>8.868843805375093</v>
+        <v>7.104134221228321</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3954612393418557</v>
+        <v>0.2270733996807905</v>
       </c>
       <c r="D5">
-        <v>0.08523811795603109</v>
+        <v>0.02832532184892145</v>
       </c>
       <c r="E5">
-        <v>0.164414856852666</v>
+        <v>0.07249800976452647</v>
       </c>
       <c r="F5">
-        <v>3.099435058787435</v>
+        <v>2.267334744229288</v>
       </c>
       <c r="G5">
-        <v>0.002546057191811728</v>
+        <v>0.0007899207337149508</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2823298260261424</v>
+        <v>0.1478326335932962</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1432755714428282</v>
+        <v>0.05033949573984842</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>8.831620452771119</v>
+        <v>6.87895543040122</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3953591876491345</v>
+        <v>0.226127074944813</v>
       </c>
       <c r="D6">
-        <v>0.08525026032782179</v>
+        <v>0.02831512261639979</v>
       </c>
       <c r="E6">
-        <v>0.1644154907085138</v>
+        <v>0.07230105397471931</v>
       </c>
       <c r="F6">
-        <v>3.097607468376367</v>
+        <v>2.255585217367639</v>
       </c>
       <c r="G6">
-        <v>0.002546328000479764</v>
+        <v>0.0007903165532208156</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.282287170362288</v>
+        <v>0.1472795615063518</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1432980436041973</v>
+        <v>0.05028700750055393</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>8.825519532964677</v>
+        <v>6.841779998835193</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3960853417838592</v>
+        <v>0.2327339298555842</v>
       </c>
       <c r="D7">
-        <v>0.08516753575444369</v>
+        <v>0.02838797163998485</v>
       </c>
       <c r="E7">
-        <v>0.1644171720963641</v>
+        <v>0.07367901718503944</v>
       </c>
       <c r="F7">
-        <v>3.110452799291096</v>
+        <v>2.337550825194029</v>
       </c>
       <c r="G7">
-        <v>0.002544465701405622</v>
+        <v>0.0007875834507801952</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2825954237807693</v>
+        <v>0.1511439411411644</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1431460965786577</v>
+        <v>0.05065718031369215</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>8.868336433054878</v>
+        <v>7.101082671759571</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3997308048376453</v>
+        <v>0.2629164554814594</v>
       </c>
       <c r="D8">
-        <v>0.08484095077592357</v>
+        <v>0.02876225218570738</v>
       </c>
       <c r="E8">
-        <v>0.1645750895357239</v>
+        <v>0.08004719871000177</v>
       </c>
       <c r="F8">
-        <v>3.171101753324677</v>
+        <v>2.710398308759352</v>
       </c>
       <c r="G8">
-        <v>0.002536677379907218</v>
+        <v>0.0007758639256567162</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2842573246249032</v>
+        <v>0.168877933148849</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.142575329664016</v>
+        <v>0.05244220937059296</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>9.068937128403149</v>
+        <v>8.279723117897618</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4084711701628123</v>
+        <v>0.326661776969587</v>
       </c>
       <c r="D9">
-        <v>0.08433819011484012</v>
+        <v>0.0297076390204829</v>
       </c>
       <c r="E9">
-        <v>0.165426127758483</v>
+        <v>0.09376869744534844</v>
       </c>
       <c r="F9">
-        <v>3.304390414962597</v>
+        <v>3.492288507305602</v>
       </c>
       <c r="G9">
-        <v>0.002522936840162652</v>
+        <v>0.0007539652041357033</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2886043149122202</v>
+        <v>0.2066630553509157</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1418137995036162</v>
+        <v>0.05656170110019687</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>9.504568119725718</v>
+        <v>10.74842760769241</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4158706283179754</v>
+        <v>0.3772266789395644</v>
       </c>
       <c r="D10">
-        <v>0.08405226851675707</v>
+        <v>0.0305555113070568</v>
       </c>
       <c r="E10">
-        <v>0.1663822655072309</v>
+        <v>0.1048227719574015</v>
       </c>
       <c r="F10">
-        <v>3.411187870280742</v>
+        <v>4.10948458456491</v>
       </c>
       <c r="G10">
-        <v>0.002513764743261909</v>
+        <v>0.0007383802558372855</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2924660023288226</v>
+        <v>0.2368790234632456</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1414718669563584</v>
+        <v>0.06004786560252384</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>9.850776479272156</v>
+        <v>12.69558928031023</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4194509569323941</v>
+        <v>0.4012907389079885</v>
       </c>
       <c r="D11">
-        <v>0.08394022163370352</v>
+        <v>0.03098109648101754</v>
       </c>
       <c r="E11">
-        <v>0.1668893041853643</v>
+        <v>0.1101208936392766</v>
       </c>
       <c r="F11">
-        <v>3.461725954367182</v>
+        <v>4.402663295813596</v>
       </c>
       <c r="G11">
-        <v>0.002509790191109113</v>
+        <v>0.0007313588546748642</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2943689193268</v>
+        <v>0.2513223433821707</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1413634587048875</v>
+        <v>0.06175521625009495</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>10.01404308703718</v>
+        <v>13.62027167823487</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4208376719516025</v>
+        <v>0.4105804453258486</v>
       </c>
       <c r="D12">
-        <v>0.08390037589296284</v>
+        <v>0.03114864935290029</v>
       </c>
       <c r="E12">
-        <v>0.167091686474599</v>
+        <v>0.1121716150853018</v>
       </c>
       <c r="F12">
-        <v>3.481146546516129</v>
+        <v>4.515774707229099</v>
       </c>
       <c r="G12">
-        <v>0.002508313404761875</v>
+        <v>0.0007287058618355789</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2951106083343973</v>
+        <v>0.2569081989429236</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.141329177173855</v>
+        <v>0.0624213337543722</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>10.07670476525391</v>
+        <v>13.97699594115124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4205376410058932</v>
+        <v>0.4085714315440896</v>
       </c>
       <c r="D13">
-        <v>0.08390884257879705</v>
+        <v>0.03111226784221444</v>
       </c>
       <c r="E13">
-        <v>0.1670476380775909</v>
+        <v>0.1117278795801901</v>
       </c>
       <c r="F13">
-        <v>3.476951363661442</v>
+        <v>4.491315761270329</v>
       </c>
       <c r="G13">
-        <v>0.002508630201815418</v>
+        <v>0.0007292770402282933</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2949499329622398</v>
+        <v>0.2556997206971801</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1413362593277512</v>
+        <v>0.06227696550595141</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>10.06317217017818</v>
+        <v>13.89985981057555</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4195644224442958</v>
+        <v>0.4020513045094845</v>
       </c>
       <c r="D14">
-        <v>0.08393689175557384</v>
+        <v>0.03099474886771958</v>
       </c>
       <c r="E14">
-        <v>0.1669057462419268</v>
+        <v>0.1102886815769324</v>
       </c>
       <c r="F14">
-        <v>3.463318018023926</v>
+        <v>4.411925211696342</v>
       </c>
       <c r="G14">
-        <v>0.002509668129083709</v>
+        <v>0.0007311404986503248</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.29442951533062</v>
+        <v>0.2517794593123028</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1413605027005822</v>
+        <v>0.06180961247545369</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>10.01918150971164</v>
+        <v>13.64948187768732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4189723282736111</v>
+        <v>0.3980814002957516</v>
       </c>
       <c r="D15">
-        <v>0.08395440898297934</v>
+        <v>0.0309236190629214</v>
       </c>
       <c r="E15">
-        <v>0.1668201852489979</v>
+        <v>0.109413101253601</v>
       </c>
       <c r="F15">
-        <v>3.455004096420254</v>
+        <v>4.363578400245046</v>
       </c>
       <c r="G15">
-        <v>0.002510307568727561</v>
+        <v>0.0007322825563196196</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2941134938963756</v>
+        <v>0.2493938765038592</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1413762339279678</v>
+        <v>0.06152596333973293</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>9.992345025575219</v>
+        <v>13.49700480165632</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4156409665114609</v>
+        <v>0.3756774139192487</v>
       </c>
       <c r="D16">
-        <v>0.08405995302973324</v>
+        <v>0.0305285546684928</v>
       </c>
       <c r="E16">
-        <v>0.1663505808914856</v>
+        <v>0.1044824178573585</v>
       </c>
       <c r="F16">
-        <v>3.407924582323488</v>
+        <v>4.090599568096593</v>
       </c>
       <c r="G16">
-        <v>0.002514028457332159</v>
+        <v>0.0007388401694813252</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2923445903929291</v>
+        <v>0.2359504858414851</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.141479899532186</v>
+        <v>0.05993890425072834</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>9.840223313780314</v>
+        <v>12.63602183259417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4136522424130078</v>
+        <v>0.3622215678352632</v>
       </c>
       <c r="D17">
-        <v>0.08412931105620203</v>
+        <v>0.03029684566393698</v>
       </c>
       <c r="E17">
-        <v>0.1660809650594643</v>
+        <v>0.1015304280305394</v>
       </c>
       <c r="F17">
-        <v>3.37954486772054</v>
+        <v>3.926518824306839</v>
       </c>
       <c r="G17">
-        <v>0.002516361666746031</v>
+        <v>0.0007428778994071425</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2912969238347642</v>
+        <v>0.2278928830708224</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1415555624033189</v>
+        <v>0.05899781640418666</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>9.748384667770381</v>
+        <v>12.11844881634863</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4125285430194197</v>
+        <v>0.3545804050947368</v>
       </c>
       <c r="D18">
-        <v>0.08417090054102516</v>
+        <v>0.03016728165431459</v>
       </c>
       <c r="E18">
-        <v>0.1659326735586824</v>
+        <v>0.09985750969424956</v>
       </c>
       <c r="F18">
-        <v>3.36340555053269</v>
+        <v>3.833291493822514</v>
       </c>
       <c r="G18">
-        <v>0.002517722302412588</v>
+        <v>0.0007452069888892909</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2907080919579386</v>
+        <v>0.223322958269847</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1416035190528255</v>
+        <v>0.0584678182910352</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>9.696104696330508</v>
+        <v>11.82435065507087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4121515372976887</v>
+        <v>0.3520094306060457</v>
       </c>
       <c r="D19">
-        <v>0.08418527364110773</v>
+        <v>0.03012403218604476</v>
       </c>
       <c r="E19">
-        <v>0.1658836294876131</v>
+        <v>0.0992952204119284</v>
       </c>
       <c r="F19">
-        <v>3.357972595402202</v>
+        <v>3.801914827803273</v>
       </c>
       <c r="G19">
-        <v>0.002518186195808346</v>
+        <v>0.0007459968396301641</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2905110844965932</v>
+        <v>0.2217863020246327</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1416205187273789</v>
+        <v>0.0582902497890494</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>9.678496715856852</v>
+        <v>11.72536443321326</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4138618580061575</v>
+        <v>0.363643627677618</v>
       </c>
       <c r="D20">
-        <v>0.08412175223927321</v>
+        <v>0.030321123204331</v>
       </c>
       <c r="E20">
-        <v>0.1661089638839606</v>
+        <v>0.1018420477435527</v>
       </c>
       <c r="F20">
-        <v>3.382546886850889</v>
+        <v>3.943864659075984</v>
       </c>
       <c r="G20">
-        <v>0.002516111365016063</v>
+        <v>0.0007424474101907602</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2914070253062278</v>
+        <v>0.2287438341880943</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1415470487714856</v>
+        <v>0.05909681394059163</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>9.758104789121717</v>
+        <v>12.17316658289383</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4198494402158133</v>
+        <v>0.4039614020725253</v>
       </c>
       <c r="D21">
-        <v>0.08392858296130612</v>
+        <v>0.03102908774084412</v>
       </c>
       <c r="E21">
-        <v>0.1669471415662542</v>
+        <v>0.1107101534156243</v>
       </c>
       <c r="F21">
-        <v>3.467314769812788</v>
+        <v>4.435184717743851</v>
       </c>
       <c r="G21">
-        <v>0.002509362497973885</v>
+        <v>0.0007305930312351426</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2945818015051032</v>
+        <v>0.2529276328565118</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1413531981529239</v>
+        <v>0.06194633555453777</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>10.03207989338989</v>
+        <v>13.72283721948918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4239429633021246</v>
+        <v>0.4313582429323048</v>
       </c>
       <c r="D22">
-        <v>0.08381739382265607</v>
+        <v>0.03152943674413322</v>
       </c>
       <c r="E22">
-        <v>0.16755543470126</v>
+        <v>0.1167682725365928</v>
       </c>
       <c r="F22">
-        <v>3.524365370009235</v>
+        <v>4.768656626833575</v>
       </c>
       <c r="G22">
-        <v>0.002505116546253269</v>
+        <v>0.0007228773756970588</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2967796970005168</v>
+        <v>0.2694214802961596</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1412659647146306</v>
+        <v>0.06392401616394494</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>10.21601499353619</v>
+        <v>14.7744804081143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4217416392032192</v>
+        <v>0.4166311571964627</v>
       </c>
       <c r="D23">
-        <v>0.0838753621102768</v>
+        <v>0.03125869828622641</v>
       </c>
       <c r="E23">
-        <v>0.1672252377327119</v>
+        <v>0.1135088335131123</v>
       </c>
       <c r="F23">
-        <v>3.493764842240324</v>
+        <v>4.589430998683042</v>
       </c>
       <c r="G23">
-        <v>0.00250736766349258</v>
+        <v>0.000726993918997114</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2955953609488091</v>
+        <v>0.2605494162737187</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1413089149031848</v>
+        <v>0.06285715196119313</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>10.11739722765583</v>
+        <v>14.20928236945633</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4137670296169915</v>
+        <v>0.3630004209969115</v>
       </c>
       <c r="D24">
-        <v>0.08412516423872063</v>
+        <v>0.03031013601163934</v>
       </c>
       <c r="E24">
-        <v>0.1660962847028742</v>
+        <v>0.1017010894487882</v>
       </c>
       <c r="F24">
-        <v>3.381189124191167</v>
+        <v>3.936019188240863</v>
       </c>
       <c r="G24">
-        <v>0.00251622446654582</v>
+        <v>0.0007426420099653798</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2913572064315986</v>
+        <v>0.2283589257041285</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1415508839010826</v>
+        <v>0.05905202290426104</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>9.753708705221015</v>
+        <v>12.14841797043454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.405935500248404</v>
+        <v>0.308837902963802</v>
       </c>
       <c r="D25">
-        <v>0.0844595108407411</v>
+        <v>0.02942694051098727</v>
       </c>
       <c r="E25">
-        <v>0.1651378580109757</v>
+        <v>0.08990347583533875</v>
       </c>
       <c r="F25">
-        <v>3.266783272651026</v>
+        <v>3.274206653164953</v>
       </c>
       <c r="G25">
-        <v>0.002526491120653027</v>
+        <v>0.0007597884216927918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2873113850367659</v>
+        <v>0.1960597757007392</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1419815707235621</v>
+        <v>0.0553731332854106</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>9.382154833515585</v>
+        <v>10.06015153741902</v>
       </c>
     </row>
   </sheetData>
